--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_9_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_9_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23852.29478618472</v>
+        <v>6365.358867920804</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4868043.802225461</v>
+        <v>5556998.633527084</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23096809.53943248</v>
+        <v>22975830.95887364</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4870109.631069154</v>
+        <v>4877736.978122506</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>104.889258789408</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K11" t="n">
-        <v>94.6755543817487</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L11" t="n">
-        <v>71.97849854454961</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M11" t="n">
-        <v>41.06296488573622</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N11" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>50.4665106791827</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P11" t="n">
-        <v>85.5883841775869</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q11" t="n">
-        <v>123.6377068975464</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8766,13 +8768,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>81.70699090058493</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K12" t="n">
-        <v>50.09627633166345</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L12" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>23.82458668363594</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q12" t="n">
-        <v>77.442690741435</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8851,19 +8853,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>73.42283224274789</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M13" t="n">
-        <v>73.3988241034014</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N13" t="n">
-        <v>61.97055239817956</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O13" t="n">
-        <v>82.27212675770768</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P13" t="n">
-        <v>87.48425302749862</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q13" t="n">
         <v>42.34223702878295</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>104.889258789408</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K14" t="n">
-        <v>94.6755543817487</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L14" t="n">
-        <v>71.97849854454961</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M14" t="n">
-        <v>41.06296488573622</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N14" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>50.4665106791827</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P14" t="n">
-        <v>85.5883841775869</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q14" t="n">
-        <v>123.6377068975464</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9003,13 +9005,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>81.70699090058493</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K15" t="n">
-        <v>50.09627633166345</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L15" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>23.82458668363594</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q15" t="n">
-        <v>77.442690741435</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9088,19 +9090,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>73.42283224274789</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M16" t="n">
-        <v>73.3988241034014</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N16" t="n">
-        <v>61.97055239817956</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O16" t="n">
-        <v>82.27212675770768</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P16" t="n">
-        <v>87.48425302749862</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q16" t="n">
         <v>42.34223702878295</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>104.889258789408</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K17" t="n">
-        <v>94.6755543817487</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L17" t="n">
-        <v>71.97849854454961</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M17" t="n">
-        <v>41.06296488573622</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N17" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>50.4665106791827</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P17" t="n">
-        <v>85.5883841775869</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q17" t="n">
-        <v>123.6377068975464</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R17" t="n">
         <v>42.58424007769262</v>
@@ -9240,13 +9242,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>81.70699090058493</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K18" t="n">
-        <v>50.09627633166345</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L18" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>23.82458668363594</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q18" t="n">
-        <v>77.442690741435</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9325,19 +9327,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>73.42283224274789</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M19" t="n">
-        <v>73.3988241034014</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N19" t="n">
-        <v>61.97055239817956</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O19" t="n">
-        <v>82.27212675770768</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P19" t="n">
-        <v>87.48425302749862</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q19" t="n">
         <v>42.34223702878295</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>104.889258789408</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K20" t="n">
-        <v>94.6755543817487</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L20" t="n">
-        <v>71.97849854454961</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M20" t="n">
-        <v>41.06296488573622</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N20" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>50.4665106791827</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P20" t="n">
-        <v>85.5883841775869</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q20" t="n">
-        <v>123.6377068975464</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R20" t="n">
         <v>42.58424007769262</v>
@@ -9477,13 +9479,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>81.70699090058493</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K21" t="n">
-        <v>50.09627633166345</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L21" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>23.82458668363594</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.442690741435</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9562,19 +9564,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>73.42283224274789</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M22" t="n">
-        <v>73.3988241034014</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N22" t="n">
-        <v>61.97055239817956</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O22" t="n">
-        <v>82.27212675770768</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P22" t="n">
-        <v>87.48425302749862</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q22" t="n">
         <v>42.34223702878295</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>104.889258789408</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K23" t="n">
-        <v>94.6755543817487</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L23" t="n">
-        <v>71.97849854454961</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M23" t="n">
-        <v>41.06296488573622</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N23" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>50.4665106791827</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P23" t="n">
-        <v>85.5883841775869</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q23" t="n">
-        <v>123.6377068975464</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R23" t="n">
         <v>42.58424007769262</v>
@@ -9714,13 +9716,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>81.70699090058493</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K24" t="n">
-        <v>50.09627633166345</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L24" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>23.82458668363594</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q24" t="n">
-        <v>77.442690741435</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9799,19 +9801,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>73.42283224274789</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M25" t="n">
-        <v>73.3988241034014</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N25" t="n">
-        <v>61.97055239817956</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O25" t="n">
-        <v>82.27212675770768</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P25" t="n">
-        <v>87.48425302749862</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q25" t="n">
         <v>42.34223702878295</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>104.889258789408</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K26" t="n">
-        <v>94.6755543817487</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L26" t="n">
-        <v>71.97849854454961</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M26" t="n">
-        <v>41.06296488573622</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N26" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>50.4665106791827</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P26" t="n">
-        <v>85.5883841775869</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.6377068975464</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R26" t="n">
         <v>42.58424007769262</v>
@@ -9951,13 +9953,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K27" t="n">
-        <v>50.09627633166345</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L27" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>23.82458668363594</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q27" t="n">
-        <v>77.442690741435</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10036,19 +10038,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>73.42283224274789</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M28" t="n">
-        <v>73.3988241034014</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N28" t="n">
-        <v>61.97055239817956</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O28" t="n">
-        <v>82.27212675770768</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P28" t="n">
-        <v>87.48425302749862</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q28" t="n">
         <v>42.34223702878295</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>104.889258789408</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K29" t="n">
-        <v>94.6755543817487</v>
+        <v>68.98158147698734</v>
       </c>
       <c r="L29" t="n">
-        <v>71.97849854454961</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M29" t="n">
-        <v>41.06296488573622</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N29" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>50.4665106791827</v>
+        <v>16.43335224433224</v>
       </c>
       <c r="P29" t="n">
-        <v>85.5883841775869</v>
+        <v>56.54187083839042</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.6377068975464</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R29" t="n">
         <v>42.58424007769262</v>
@@ -10188,13 +10190,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>81.70699090058493</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K30" t="n">
-        <v>50.09627633166345</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L30" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>23.82458668363594</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q30" t="n">
-        <v>77.442690741435</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10273,19 +10275,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>73.42283224274789</v>
+        <v>59.95218091677093</v>
       </c>
       <c r="M31" t="n">
-        <v>73.3988241034014</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N31" t="n">
-        <v>61.97055239817956</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O31" t="n">
-        <v>82.27212675770768</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P31" t="n">
-        <v>87.48425302749862</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q31" t="n">
         <v>42.34223702878295</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>104.889258789408</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K32" t="n">
-        <v>94.6755543817487</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L32" t="n">
-        <v>71.97849854454961</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M32" t="n">
-        <v>41.06296488573622</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N32" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>50.4665106791827</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P32" t="n">
-        <v>85.5883841775869</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q32" t="n">
-        <v>123.6377068975464</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R32" t="n">
         <v>42.58424007769262</v>
@@ -10425,13 +10427,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K33" t="n">
-        <v>50.09627633166345</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L33" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>23.82458668363594</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q33" t="n">
-        <v>77.442690741435</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10510,19 +10512,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>73.42283224274789</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M34" t="n">
-        <v>73.3988241034014</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N34" t="n">
-        <v>61.97055239817956</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O34" t="n">
-        <v>82.27212675770768</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P34" t="n">
-        <v>87.48425302749862</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q34" t="n">
         <v>42.34223702878295</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>104.889258789408</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K35" t="n">
-        <v>94.6755543817487</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L35" t="n">
-        <v>71.97849854454961</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M35" t="n">
-        <v>41.06296488573622</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N35" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>50.4665106791827</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P35" t="n">
-        <v>85.5883841775869</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q35" t="n">
-        <v>123.6377068975464</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10662,13 +10664,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K36" t="n">
-        <v>50.09627633166345</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L36" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>23.82458668363594</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q36" t="n">
-        <v>77.442690741435</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10747,19 +10749,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>73.42283224274789</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M37" t="n">
-        <v>73.3988241034014</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N37" t="n">
-        <v>61.97055239817956</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O37" t="n">
-        <v>82.27212675770768</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P37" t="n">
-        <v>87.48425302749862</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q37" t="n">
         <v>42.34223702878295</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>104.889258789408</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K38" t="n">
-        <v>94.6755543817487</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L38" t="n">
-        <v>71.97849854454961</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M38" t="n">
-        <v>41.06296488573622</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N38" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>50.4665106791827</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P38" t="n">
-        <v>85.5883841775869</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q38" t="n">
-        <v>123.6377068975464</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -10899,13 +10901,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>81.70699090058493</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K39" t="n">
-        <v>50.09627633166345</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L39" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>23.82458668363594</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q39" t="n">
-        <v>77.442690741435</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -10984,19 +10986,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>73.42283224274789</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M40" t="n">
-        <v>73.3988241034014</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N40" t="n">
-        <v>61.97055239817956</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O40" t="n">
-        <v>82.27212675770768</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P40" t="n">
-        <v>87.48425302749862</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q40" t="n">
         <v>42.34223702878295</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>104.889258789408</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K41" t="n">
-        <v>94.6755543817487</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L41" t="n">
-        <v>71.97849854454961</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M41" t="n">
-        <v>41.06296488573622</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N41" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>50.4665106791827</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P41" t="n">
-        <v>85.5883841775869</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q41" t="n">
-        <v>123.6377068975464</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11136,13 +11138,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K42" t="n">
-        <v>50.09627633166345</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L42" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>23.82458668363594</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q42" t="n">
-        <v>77.442690741435</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11221,19 +11223,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>73.42283224274789</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M43" t="n">
-        <v>73.3988241034014</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N43" t="n">
-        <v>61.97055239817956</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O43" t="n">
-        <v>82.27212675770768</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P43" t="n">
-        <v>87.48425302749862</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q43" t="n">
         <v>42.34223702878295</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>104.889258789408</v>
+        <v>85.09801597620873</v>
       </c>
       <c r="K44" t="n">
-        <v>94.6755543817487</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L44" t="n">
-        <v>71.97849854454961</v>
+        <v>35.18023582793884</v>
       </c>
       <c r="M44" t="n">
-        <v>41.06296488573622</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N44" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>50.4665106791827</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P44" t="n">
-        <v>85.5883841775869</v>
+        <v>52.05616184039113</v>
       </c>
       <c r="Q44" t="n">
-        <v>123.6377068975464</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11373,13 +11375,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>81.70699090058493</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K45" t="n">
-        <v>50.09627633166345</v>
+        <v>29.94951240287884</v>
       </c>
       <c r="L45" t="n">
-        <v>10.27628214666007</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>23.82458668363594</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>77.442690741435</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11458,19 +11460,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>73.42283224274789</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M46" t="n">
-        <v>73.3988241034014</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N46" t="n">
-        <v>61.97055239817956</v>
+        <v>45.96412335430749</v>
       </c>
       <c r="O46" t="n">
-        <v>82.27212675770768</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P46" t="n">
-        <v>87.48425302749862</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q46" t="n">
         <v>42.34223702878295</v>
@@ -23270,13 +23272,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H11" t="n">
-        <v>337.191226455099</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I11" t="n">
-        <v>204.0047442482169</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>134.5867032943157</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S11" t="n">
-        <v>205.6441716172273</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T11" t="n">
-        <v>218.2640917157734</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23349,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H12" t="n">
-        <v>120.7755129590769</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I12" t="n">
-        <v>89.68126172020311</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J12" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>102.8333681880216</v>
+        <v>96.12326613555373</v>
       </c>
       <c r="S12" t="n">
-        <v>182.0514410751984</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T12" t="n">
-        <v>212.9008733398524</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23428,19 +23430,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H13" t="n">
-        <v>161.9963241796108</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I13" t="n">
-        <v>151.9048422443612</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J13" t="n">
-        <v>89.79898650365654</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K13" t="n">
-        <v>17.00668871668184</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.16342279524457</v>
+        <v>83.57640008743157</v>
       </c>
       <c r="R13" t="n">
-        <v>184.0703993891455</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S13" t="n">
-        <v>227.9345506528043</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T13" t="n">
-        <v>221.9218912383841</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23507,13 +23509,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H14" t="n">
-        <v>337.191226455099</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I14" t="n">
-        <v>204.0047442482169</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>134.5867032943157</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S14" t="n">
-        <v>205.6441716172273</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T14" t="n">
-        <v>218.2640917157734</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23586,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H15" t="n">
-        <v>120.7755129590769</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I15" t="n">
-        <v>89.68126172020311</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J15" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>102.8333681880216</v>
+        <v>96.12326613555373</v>
       </c>
       <c r="S15" t="n">
-        <v>182.0514410751984</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T15" t="n">
-        <v>212.9008733398524</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23665,19 +23667,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H16" t="n">
-        <v>161.9963241796108</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I16" t="n">
-        <v>151.9048422443612</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J16" t="n">
-        <v>89.79898650365654</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K16" t="n">
-        <v>17.00668871668184</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.16342279524457</v>
+        <v>83.57640008743157</v>
       </c>
       <c r="R16" t="n">
-        <v>184.0703993891455</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S16" t="n">
-        <v>227.9345506528043</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T16" t="n">
-        <v>221.9218912383841</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23744,13 +23746,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H17" t="n">
-        <v>337.191226455099</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I17" t="n">
-        <v>204.0047442482169</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>134.5867032943157</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S17" t="n">
-        <v>205.6441716172273</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T17" t="n">
-        <v>218.2640917157734</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23823,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H18" t="n">
-        <v>120.7755129590769</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I18" t="n">
-        <v>89.68126172020311</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J18" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>102.8333681880216</v>
+        <v>96.12326613555373</v>
       </c>
       <c r="S18" t="n">
-        <v>182.0514410751984</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T18" t="n">
-        <v>212.9008733398524</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23902,19 +23904,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H19" t="n">
-        <v>161.9963241796108</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I19" t="n">
-        <v>151.9048422443612</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J19" t="n">
-        <v>89.79898650365654</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K19" t="n">
-        <v>17.00668871668184</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23929,22 +23931,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>91.16342279524457</v>
+        <v>83.57640008743157</v>
       </c>
       <c r="R19" t="n">
-        <v>184.0703993891455</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S19" t="n">
-        <v>227.9345506528043</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T19" t="n">
-        <v>221.9218912383841</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23981,13 +23983,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H20" t="n">
-        <v>337.191226455099</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I20" t="n">
-        <v>204.0047442482169</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>134.5867032943157</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S20" t="n">
-        <v>205.6441716172273</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T20" t="n">
-        <v>218.2640917157734</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24060,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H21" t="n">
-        <v>120.7755129590769</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I21" t="n">
-        <v>89.68126172020311</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J21" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>102.8333681880216</v>
+        <v>96.12326613555373</v>
       </c>
       <c r="S21" t="n">
-        <v>182.0514410751984</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T21" t="n">
-        <v>212.9008733398524</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24139,19 +24141,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H22" t="n">
-        <v>161.9963241796108</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I22" t="n">
-        <v>151.9048422443612</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J22" t="n">
-        <v>89.79898650365654</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K22" t="n">
-        <v>17.00668871668184</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24166,22 +24168,22 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>91.16342279524457</v>
+        <v>83.57640008743157</v>
       </c>
       <c r="R22" t="n">
-        <v>184.0703993891455</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S22" t="n">
-        <v>227.9345506528043</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T22" t="n">
-        <v>221.9218912383841</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24218,13 +24220,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H23" t="n">
-        <v>337.191226455099</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I23" t="n">
-        <v>204.0047442482169</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>134.5867032943157</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S23" t="n">
-        <v>205.6441716172273</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T23" t="n">
-        <v>218.2640917157734</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24297,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H24" t="n">
-        <v>120.7755129590769</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I24" t="n">
-        <v>89.68126172020311</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J24" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>102.8333681880216</v>
+        <v>96.12326613555373</v>
       </c>
       <c r="S24" t="n">
-        <v>182.0514410751984</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T24" t="n">
-        <v>212.9008733398524</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24376,19 +24378,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H25" t="n">
-        <v>161.9963241796108</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I25" t="n">
-        <v>151.9048422443612</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J25" t="n">
-        <v>89.79898650365654</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K25" t="n">
-        <v>17.00668871668184</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24403,22 +24405,22 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>91.16342279524457</v>
+        <v>83.57640008743157</v>
       </c>
       <c r="R25" t="n">
-        <v>184.0703993891455</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S25" t="n">
-        <v>227.9345506528043</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T25" t="n">
-        <v>221.9218912383841</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24455,13 +24457,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H26" t="n">
-        <v>337.191226455099</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I26" t="n">
-        <v>204.0047442482169</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>134.5867032943157</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S26" t="n">
-        <v>205.6441716172273</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T26" t="n">
-        <v>218.2640917157734</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24534,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H27" t="n">
-        <v>120.7755129590769</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I27" t="n">
-        <v>89.68126172020311</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J27" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>102.8333681880216</v>
+        <v>96.12326613555373</v>
       </c>
       <c r="S27" t="n">
-        <v>182.0514410751984</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T27" t="n">
-        <v>212.9008733398524</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24613,19 +24615,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H28" t="n">
-        <v>161.9963241796108</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I28" t="n">
-        <v>151.9048422443612</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J28" t="n">
-        <v>89.79898650365654</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K28" t="n">
-        <v>17.00668871668184</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24640,22 +24642,22 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>91.16342279524457</v>
+        <v>83.57640008743157</v>
       </c>
       <c r="R28" t="n">
-        <v>184.0703993891455</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S28" t="n">
-        <v>227.9345506528043</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T28" t="n">
-        <v>221.9218912383841</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24692,13 +24694,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H29" t="n">
-        <v>337.191226455099</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I29" t="n">
-        <v>204.0047442482169</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>134.5867032943157</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S29" t="n">
-        <v>205.6441716172273</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T29" t="n">
-        <v>218.2640917157734</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24771,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H30" t="n">
-        <v>120.7755129590769</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I30" t="n">
-        <v>89.68126172020311</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J30" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>102.8333681880216</v>
+        <v>96.12326613555375</v>
       </c>
       <c r="S30" t="n">
-        <v>182.0514410751984</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T30" t="n">
-        <v>212.9008733398524</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24850,19 +24852,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H31" t="n">
-        <v>161.9963241796108</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I31" t="n">
-        <v>151.9048422443612</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J31" t="n">
-        <v>89.79898650365654</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K31" t="n">
-        <v>17.00668871668184</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24877,22 +24879,22 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>91.16342279524457</v>
+        <v>83.57640008743158</v>
       </c>
       <c r="R31" t="n">
-        <v>184.0703993891455</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S31" t="n">
-        <v>227.9345506528043</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T31" t="n">
-        <v>221.9218912383841</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24929,13 +24931,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H32" t="n">
-        <v>337.191226455099</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I32" t="n">
-        <v>204.0047442482169</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>134.5867032943157</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S32" t="n">
-        <v>205.6441716172273</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T32" t="n">
-        <v>218.2640917157734</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25008,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H33" t="n">
-        <v>120.7755129590769</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I33" t="n">
-        <v>89.68126172020311</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J33" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>102.8333681880216</v>
+        <v>96.12326613555373</v>
       </c>
       <c r="S33" t="n">
-        <v>182.0514410751984</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T33" t="n">
-        <v>212.9008733398524</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25087,19 +25089,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H34" t="n">
-        <v>161.9963241796108</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I34" t="n">
-        <v>151.9048422443612</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J34" t="n">
-        <v>89.79898650365654</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K34" t="n">
-        <v>17.00668871668184</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25114,22 +25116,22 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>91.16342279524457</v>
+        <v>83.57640008743157</v>
       </c>
       <c r="R34" t="n">
-        <v>184.0703993891455</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S34" t="n">
-        <v>227.9345506528043</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T34" t="n">
-        <v>221.9218912383841</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25166,13 +25168,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H35" t="n">
-        <v>337.191226455099</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I35" t="n">
-        <v>204.0047442482169</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>134.5867032943157</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S35" t="n">
-        <v>205.6441716172273</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T35" t="n">
-        <v>218.2640917157734</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25245,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H36" t="n">
-        <v>120.7755129590769</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I36" t="n">
-        <v>89.68126172020311</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J36" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>102.8333681880216</v>
+        <v>96.12326613555373</v>
       </c>
       <c r="S36" t="n">
-        <v>182.0514410751984</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T36" t="n">
-        <v>212.9008733398524</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25324,19 +25326,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H37" t="n">
-        <v>161.9963241796108</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I37" t="n">
-        <v>151.9048422443612</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J37" t="n">
-        <v>89.79898650365654</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K37" t="n">
-        <v>17.00668871668184</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25351,22 +25353,22 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>91.16342279524457</v>
+        <v>83.57640008743157</v>
       </c>
       <c r="R37" t="n">
-        <v>184.0703993891455</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S37" t="n">
-        <v>227.9345506528043</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T37" t="n">
-        <v>221.9218912383841</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25403,13 +25405,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H38" t="n">
-        <v>337.191226455099</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I38" t="n">
-        <v>204.0047442482169</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>134.5867032943157</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S38" t="n">
-        <v>205.6441716172273</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T38" t="n">
-        <v>218.2640917157734</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25482,16 +25484,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H39" t="n">
-        <v>120.7755129590769</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I39" t="n">
-        <v>89.68126172020311</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J39" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>102.8333681880216</v>
+        <v>96.12326613555373</v>
       </c>
       <c r="S39" t="n">
-        <v>182.0514410751984</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T39" t="n">
-        <v>212.9008733398524</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25561,19 +25563,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H40" t="n">
-        <v>161.9963241796108</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I40" t="n">
-        <v>151.9048422443612</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J40" t="n">
-        <v>89.79898650365654</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K40" t="n">
-        <v>17.00668871668184</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25588,22 +25590,22 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>91.16342279524457</v>
+        <v>83.57640008743157</v>
       </c>
       <c r="R40" t="n">
-        <v>184.0703993891455</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S40" t="n">
-        <v>227.9345506528043</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T40" t="n">
-        <v>221.9218912383841</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25640,13 +25642,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H41" t="n">
-        <v>337.191226455099</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I41" t="n">
-        <v>204.0047442482169</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>134.5867032943157</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S41" t="n">
-        <v>205.6441716172273</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T41" t="n">
-        <v>218.2640917157734</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25719,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H42" t="n">
-        <v>120.7755129590769</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I42" t="n">
-        <v>89.68126172020311</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J42" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>102.8333681880216</v>
+        <v>96.12326613555373</v>
       </c>
       <c r="S42" t="n">
-        <v>182.0514410751984</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T42" t="n">
-        <v>212.9008733398524</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25798,19 +25800,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H43" t="n">
-        <v>161.9963241796108</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I43" t="n">
-        <v>151.9048422443612</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J43" t="n">
-        <v>89.79898650365654</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K43" t="n">
-        <v>17.00668871668184</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25825,22 +25827,22 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>91.16342279524457</v>
+        <v>83.57640008743157</v>
       </c>
       <c r="R43" t="n">
-        <v>184.0703993891455</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S43" t="n">
-        <v>227.9345506528043</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T43" t="n">
-        <v>221.9218912383841</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25877,13 +25879,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.8783123837688</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H44" t="n">
-        <v>337.191226455099</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I44" t="n">
-        <v>204.0047442482169</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>134.5867032943157</v>
+        <v>119.9389275525271</v>
       </c>
       <c r="S44" t="n">
-        <v>205.6441716172273</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T44" t="n">
-        <v>218.2640917157734</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25956,16 +25958,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.2310337884838</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H45" t="n">
-        <v>120.7755129590769</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I45" t="n">
-        <v>89.68126172020311</v>
+        <v>85.3856347858804</v>
       </c>
       <c r="J45" t="n">
-        <v>3.954003058433003</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>102.8333681880216</v>
+        <v>95.08701215206337</v>
       </c>
       <c r="S45" t="n">
-        <v>182.0514410751984</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T45" t="n">
-        <v>212.9008733398524</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26035,19 +26037,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.2702145158476</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H46" t="n">
-        <v>161.9963241796108</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I46" t="n">
-        <v>151.9048422443612</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J46" t="n">
-        <v>89.79898650365654</v>
+        <v>82.40386984743405</v>
       </c>
       <c r="K46" t="n">
-        <v>17.00668871668184</v>
+        <v>4.854240360436052</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26062,22 +26064,22 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>6.404274245706759</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>91.16342279524457</v>
+        <v>82.40472155820389</v>
       </c>
       <c r="R46" t="n">
-        <v>184.0703993891455</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S46" t="n">
-        <v>227.9345506528043</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T46" t="n">
-        <v>221.9218912383841</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>439891.883780071</v>
+        <v>440760.0439321055</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>439891.883780071</v>
+        <v>440760.0439321055</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>439891.883780071</v>
+        <v>440760.0439321055</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>439891.883780071</v>
+        <v>440760.0439321055</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>439891.883780071</v>
+        <v>440760.0439321055</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>439891.883780071</v>
+        <v>440760.0439321055</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>439891.883780071</v>
+        <v>440760.0439321055</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>439891.883780071</v>
+        <v>440760.0439321055</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>439891.883780071</v>
+        <v>440760.0439321055</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>439891.883780071</v>
+        <v>440760.0439321055</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>439891.883780071</v>
+        <v>440760.0439321055</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>439891.883780071</v>
+        <v>440923.3356258553</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>52885.03113620008</v>
       </c>
       <c r="E2" t="n">
-        <v>70467.37590563812</v>
+        <v>71463.7420783835</v>
       </c>
       <c r="F2" t="n">
-        <v>70467.37590563812</v>
+        <v>71463.7420783835</v>
       </c>
       <c r="G2" t="n">
-        <v>70467.37590563812</v>
+        <v>71463.7420783835</v>
       </c>
       <c r="H2" t="n">
-        <v>70467.37590563812</v>
+        <v>71463.7420783835</v>
       </c>
       <c r="I2" t="n">
-        <v>70467.37590563812</v>
+        <v>71463.7420783835</v>
       </c>
       <c r="J2" t="n">
-        <v>70467.37590563812</v>
+        <v>71463.7420783835</v>
       </c>
       <c r="K2" t="n">
-        <v>70467.37590563812</v>
+        <v>71463.74207838351</v>
       </c>
       <c r="L2" t="n">
-        <v>70467.37590563812</v>
+        <v>71463.74207838351</v>
       </c>
       <c r="M2" t="n">
-        <v>70467.37590563812</v>
+        <v>71463.74207838348</v>
       </c>
       <c r="N2" t="n">
-        <v>70467.37590563812</v>
+        <v>71463.74207838351</v>
       </c>
       <c r="O2" t="n">
-        <v>70467.37590563812</v>
+        <v>71463.74207838351</v>
       </c>
       <c r="P2" t="n">
-        <v>70467.37590563812</v>
+        <v>71605.20606132397</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>273106.1670582839</v>
+        <v>313473.2982140792</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5164.510654100926</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26426,40 @@
         <v>47596.52802258005</v>
       </c>
       <c r="E4" t="n">
-        <v>17087.62834624219</v>
+        <v>11977.59146180444</v>
       </c>
       <c r="F4" t="n">
-        <v>17087.62834624219</v>
+        <v>11977.59146180444</v>
       </c>
       <c r="G4" t="n">
-        <v>17087.62834624219</v>
+        <v>11977.59146180444</v>
       </c>
       <c r="H4" t="n">
-        <v>17087.62834624219</v>
+        <v>11977.59146180444</v>
       </c>
       <c r="I4" t="n">
-        <v>17087.62834624219</v>
+        <v>11977.59146180444</v>
       </c>
       <c r="J4" t="n">
-        <v>17087.62834624219</v>
+        <v>11977.59146180444</v>
       </c>
       <c r="K4" t="n">
-        <v>17087.62834624219</v>
+        <v>11977.59146180444</v>
       </c>
       <c r="L4" t="n">
-        <v>17087.62834624219</v>
+        <v>11977.59146180444</v>
       </c>
       <c r="M4" t="n">
-        <v>17087.62834624219</v>
+        <v>11977.59146180444</v>
       </c>
       <c r="N4" t="n">
-        <v>17087.62834624219</v>
+        <v>11977.59146180444</v>
       </c>
       <c r="O4" t="n">
-        <v>17087.62834624219</v>
+        <v>11977.59146180444</v>
       </c>
       <c r="P4" t="n">
-        <v>17087.62834624219</v>
+        <v>11292.09925791138</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>7410.620126973125</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="F5" t="n">
-        <v>7410.620126973125</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="G5" t="n">
-        <v>7410.620126973125</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="H5" t="n">
-        <v>7410.620126973125</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="I5" t="n">
-        <v>7410.620126973125</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="J5" t="n">
-        <v>7410.620126973125</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="K5" t="n">
-        <v>7410.620126973125</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="L5" t="n">
-        <v>7410.620126973125</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="M5" t="n">
-        <v>7410.620126973125</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="N5" t="n">
-        <v>7410.620126973125</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="O5" t="n">
-        <v>7410.620126973125</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="P5" t="n">
-        <v>7410.620126973125</v>
+        <v>8675.121365168401</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-28339.09688637997</v>
       </c>
       <c r="E6" t="n">
-        <v>-227137.0396258611</v>
+        <v>-262493.1127246741</v>
       </c>
       <c r="F6" t="n">
-        <v>45969.12743242281</v>
+        <v>50980.18548940511</v>
       </c>
       <c r="G6" t="n">
-        <v>45969.12743242281</v>
+        <v>50980.18548940511</v>
       </c>
       <c r="H6" t="n">
-        <v>45969.12743242281</v>
+        <v>50980.18548940511</v>
       </c>
       <c r="I6" t="n">
-        <v>45969.12743242281</v>
+        <v>50980.18548940511</v>
       </c>
       <c r="J6" t="n">
-        <v>45969.12743242281</v>
+        <v>50980.18548940511</v>
       </c>
       <c r="K6" t="n">
-        <v>45969.12743242281</v>
+        <v>50980.18548940513</v>
       </c>
       <c r="L6" t="n">
-        <v>45969.12743242281</v>
+        <v>50980.18548940513</v>
       </c>
       <c r="M6" t="n">
-        <v>45969.12743242281</v>
+        <v>50980.1854894051</v>
       </c>
       <c r="N6" t="n">
-        <v>45969.12743242281</v>
+        <v>50980.18548940513</v>
       </c>
       <c r="O6" t="n">
-        <v>45969.12743242281</v>
+        <v>50980.18548940513</v>
       </c>
       <c r="P6" t="n">
-        <v>45969.12743242281</v>
+        <v>46473.47478414326</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>339.9367030721617</v>
+        <v>390.181886567612</v>
       </c>
       <c r="F3" t="n">
-        <v>339.9367030721617</v>
+        <v>390.181886567612</v>
       </c>
       <c r="G3" t="n">
-        <v>339.9367030721617</v>
+        <v>390.181886567612</v>
       </c>
       <c r="H3" t="n">
-        <v>339.9367030721617</v>
+        <v>390.181886567612</v>
       </c>
       <c r="I3" t="n">
-        <v>339.9367030721617</v>
+        <v>390.181886567612</v>
       </c>
       <c r="J3" t="n">
-        <v>339.9367030721617</v>
+        <v>390.181886567612</v>
       </c>
       <c r="K3" t="n">
-        <v>339.9367030721617</v>
+        <v>390.181886567612</v>
       </c>
       <c r="L3" t="n">
-        <v>339.9367030721617</v>
+        <v>390.181886567612</v>
       </c>
       <c r="M3" t="n">
-        <v>339.9367030721617</v>
+        <v>390.181886567612</v>
       </c>
       <c r="N3" t="n">
-        <v>339.9367030721617</v>
+        <v>390.181886567612</v>
       </c>
       <c r="O3" t="n">
-        <v>339.9367030721617</v>
+        <v>390.181886567612</v>
       </c>
       <c r="P3" t="n">
-        <v>339.9367030721617</v>
+        <v>397.9413470260735</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>339.9367030721617</v>
+        <v>390.181886567612</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>7.759460458461433</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.36657971084286</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H11" t="n">
-        <v>13.99548446366944</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I11" t="n">
-        <v>52.68506430226941</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J11" t="n">
-        <v>115.9867447331493</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K11" t="n">
-        <v>173.8340638931276</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L11" t="n">
-        <v>215.6565277188348</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M11" t="n">
-        <v>239.9594396515365</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N11" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O11" t="n">
-        <v>230.2533072552751</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P11" t="n">
-        <v>196.515870643842</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q11" t="n">
-        <v>147.575234749282</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R11" t="n">
-        <v>85.84341276123287</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S11" t="n">
-        <v>31.1409351608317</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T11" t="n">
-        <v>5.982202684214623</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H12" t="n">
-        <v>7.061703963819812</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I12" t="n">
-        <v>25.17455772751386</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J12" t="n">
-        <v>69.08091057431542</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K12" t="n">
-        <v>118.0702792170545</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L12" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M12" t="n">
         <v>173.4035213848624</v>
@@ -31856,22 +31858,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P12" t="n">
-        <v>139.624190361847</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q12" t="n">
-        <v>93.33507364351127</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R12" t="n">
-        <v>45.39758461027851</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S12" t="n">
-        <v>13.58143337274154</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T12" t="n">
-        <v>2.947187076635061</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H13" t="n">
-        <v>5.450132714829087</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I13" t="n">
-        <v>18.43460022561821</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J13" t="n">
-        <v>43.33914327528198</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K13" t="n">
-        <v>71.21952566003647</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L13" t="n">
-        <v>91.13647282036283</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M13" t="n">
-        <v>96.09063231267676</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N13" t="n">
-        <v>93.80581184940493</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O13" t="n">
-        <v>86.6448501535405</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P13" t="n">
-        <v>74.13963766675469</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.33044216389641</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R13" t="n">
-        <v>27.56273661303133</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S13" t="n">
-        <v>10.68292884900547</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T13" t="n">
-        <v>2.619184433506819</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.36657971084286</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H14" t="n">
-        <v>13.99548446366944</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I14" t="n">
-        <v>52.68506430226941</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J14" t="n">
-        <v>115.9867447331493</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K14" t="n">
-        <v>173.8340638931276</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L14" t="n">
-        <v>215.6565277188348</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M14" t="n">
-        <v>239.9594396515365</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N14" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O14" t="n">
-        <v>230.2533072552751</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P14" t="n">
-        <v>196.515870643842</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q14" t="n">
-        <v>147.575234749282</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R14" t="n">
-        <v>85.84341276123287</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S14" t="n">
-        <v>31.1409351608317</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T14" t="n">
-        <v>5.982202684214623</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H15" t="n">
-        <v>7.061703963819812</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I15" t="n">
-        <v>25.17455772751386</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J15" t="n">
-        <v>69.08091057431542</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K15" t="n">
-        <v>118.0702792170545</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L15" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M15" t="n">
         <v>173.4035213848624</v>
@@ -32093,22 +32095,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P15" t="n">
-        <v>139.624190361847</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q15" t="n">
-        <v>93.33507364351127</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R15" t="n">
-        <v>45.39758461027851</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S15" t="n">
-        <v>13.58143337274154</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T15" t="n">
-        <v>2.947187076635061</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H16" t="n">
-        <v>5.450132714829087</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I16" t="n">
-        <v>18.43460022561821</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J16" t="n">
-        <v>43.33914327528198</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K16" t="n">
-        <v>71.21952566003647</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L16" t="n">
-        <v>91.13647282036283</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M16" t="n">
-        <v>96.09063231267676</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N16" t="n">
-        <v>93.80581184940493</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O16" t="n">
-        <v>86.6448501535405</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P16" t="n">
-        <v>74.13963766675469</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.33044216389641</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R16" t="n">
-        <v>27.56273661303133</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S16" t="n">
-        <v>10.68292884900547</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T16" t="n">
-        <v>2.619184433506819</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.36657971084286</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H17" t="n">
-        <v>13.99548446366944</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I17" t="n">
-        <v>52.68506430226941</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J17" t="n">
-        <v>115.9867447331493</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K17" t="n">
-        <v>173.8340638931276</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L17" t="n">
-        <v>215.6565277188348</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M17" t="n">
-        <v>239.9594396515365</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N17" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O17" t="n">
-        <v>230.2533072552751</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P17" t="n">
-        <v>196.515870643842</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q17" t="n">
-        <v>147.575234749282</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R17" t="n">
-        <v>85.84341276123287</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S17" t="n">
-        <v>31.1409351608317</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T17" t="n">
-        <v>5.982202684214623</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H18" t="n">
-        <v>7.061703963819812</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I18" t="n">
-        <v>25.17455772751386</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J18" t="n">
-        <v>69.08091057431542</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K18" t="n">
-        <v>118.0702792170545</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L18" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M18" t="n">
         <v>173.4035213848624</v>
@@ -32330,22 +32332,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P18" t="n">
-        <v>139.624190361847</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q18" t="n">
-        <v>93.33507364351127</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R18" t="n">
-        <v>45.39758461027851</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S18" t="n">
-        <v>13.58143337274154</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T18" t="n">
-        <v>2.947187076635061</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H19" t="n">
-        <v>5.450132714829087</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I19" t="n">
-        <v>18.43460022561821</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J19" t="n">
-        <v>43.33914327528198</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K19" t="n">
-        <v>71.21952566003647</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L19" t="n">
-        <v>91.13647282036283</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M19" t="n">
-        <v>96.09063231267676</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N19" t="n">
-        <v>93.80581184940493</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O19" t="n">
-        <v>86.6448501535405</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P19" t="n">
-        <v>74.13963766675469</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q19" t="n">
-        <v>51.33044216389641</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R19" t="n">
-        <v>27.56273661303133</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S19" t="n">
-        <v>10.68292884900547</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T19" t="n">
-        <v>2.619184433506819</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.36657971084286</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H20" t="n">
-        <v>13.99548446366944</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I20" t="n">
-        <v>52.68506430226941</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J20" t="n">
-        <v>115.9867447331493</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K20" t="n">
-        <v>173.8340638931276</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L20" t="n">
-        <v>215.6565277188348</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M20" t="n">
-        <v>239.9594396515365</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N20" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O20" t="n">
-        <v>230.2533072552751</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P20" t="n">
-        <v>196.515870643842</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q20" t="n">
-        <v>147.575234749282</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R20" t="n">
-        <v>85.84341276123287</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S20" t="n">
-        <v>31.1409351608317</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T20" t="n">
-        <v>5.982202684214623</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H21" t="n">
-        <v>7.061703963819812</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I21" t="n">
-        <v>25.17455772751386</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J21" t="n">
-        <v>69.08091057431542</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K21" t="n">
-        <v>118.0702792170545</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L21" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M21" t="n">
         <v>173.4035213848624</v>
@@ -32567,22 +32569,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P21" t="n">
-        <v>139.624190361847</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q21" t="n">
-        <v>93.33507364351127</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R21" t="n">
-        <v>45.39758461027851</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S21" t="n">
-        <v>13.58143337274154</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T21" t="n">
-        <v>2.947187076635061</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H22" t="n">
-        <v>5.450132714829087</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I22" t="n">
-        <v>18.43460022561821</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J22" t="n">
-        <v>43.33914327528198</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K22" t="n">
-        <v>71.21952566003647</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L22" t="n">
-        <v>91.13647282036283</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M22" t="n">
-        <v>96.09063231267676</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N22" t="n">
-        <v>93.80581184940493</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O22" t="n">
-        <v>86.6448501535405</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P22" t="n">
-        <v>74.13963766675469</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q22" t="n">
-        <v>51.33044216389641</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R22" t="n">
-        <v>27.56273661303133</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S22" t="n">
-        <v>10.68292884900547</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T22" t="n">
-        <v>2.619184433506819</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.36657971084286</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H23" t="n">
-        <v>13.99548446366944</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I23" t="n">
-        <v>52.68506430226941</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J23" t="n">
-        <v>115.9867447331493</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K23" t="n">
-        <v>173.8340638931276</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L23" t="n">
-        <v>215.6565277188348</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M23" t="n">
-        <v>239.9594396515365</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N23" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O23" t="n">
-        <v>230.2533072552751</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P23" t="n">
-        <v>196.515870643842</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q23" t="n">
-        <v>147.575234749282</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R23" t="n">
-        <v>85.84341276123287</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S23" t="n">
-        <v>31.1409351608317</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T23" t="n">
-        <v>5.982202684214623</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H24" t="n">
-        <v>7.061703963819812</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I24" t="n">
-        <v>25.17455772751386</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J24" t="n">
-        <v>69.08091057431542</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K24" t="n">
-        <v>118.0702792170545</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L24" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M24" t="n">
         <v>173.4035213848624</v>
@@ -32804,22 +32806,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P24" t="n">
-        <v>139.624190361847</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q24" t="n">
-        <v>93.33507364351127</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R24" t="n">
-        <v>45.39758461027851</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S24" t="n">
-        <v>13.58143337274154</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T24" t="n">
-        <v>2.947187076635061</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H25" t="n">
-        <v>5.450132714829087</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I25" t="n">
-        <v>18.43460022561821</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J25" t="n">
-        <v>43.33914327528198</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K25" t="n">
-        <v>71.21952566003647</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L25" t="n">
-        <v>91.13647282036283</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M25" t="n">
-        <v>96.09063231267676</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N25" t="n">
-        <v>93.80581184940493</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O25" t="n">
-        <v>86.6448501535405</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P25" t="n">
-        <v>74.13963766675469</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q25" t="n">
-        <v>51.33044216389641</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R25" t="n">
-        <v>27.56273661303133</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S25" t="n">
-        <v>10.68292884900547</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T25" t="n">
-        <v>2.619184433506819</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.36657971084286</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H26" t="n">
-        <v>13.99548446366944</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I26" t="n">
-        <v>52.68506430226941</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J26" t="n">
-        <v>115.9867447331493</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K26" t="n">
-        <v>173.8340638931276</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L26" t="n">
-        <v>215.6565277188348</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M26" t="n">
-        <v>239.9594396515365</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N26" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O26" t="n">
-        <v>230.2533072552751</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P26" t="n">
-        <v>196.515870643842</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q26" t="n">
-        <v>147.575234749282</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R26" t="n">
-        <v>85.84341276123287</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S26" t="n">
-        <v>31.1409351608317</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T26" t="n">
-        <v>5.982202684214623</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H27" t="n">
-        <v>7.061703963819812</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I27" t="n">
-        <v>25.17455772751386</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J27" t="n">
-        <v>69.08091057431542</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K27" t="n">
-        <v>118.0702792170545</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L27" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M27" t="n">
         <v>173.4035213848624</v>
@@ -33041,22 +33043,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P27" t="n">
-        <v>139.624190361847</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q27" t="n">
-        <v>93.33507364351127</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R27" t="n">
-        <v>45.39758461027851</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S27" t="n">
-        <v>13.58143337274154</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T27" t="n">
-        <v>2.947187076635061</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H28" t="n">
-        <v>5.450132714829087</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I28" t="n">
-        <v>18.43460022561821</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J28" t="n">
-        <v>43.33914327528198</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K28" t="n">
-        <v>71.21952566003647</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L28" t="n">
-        <v>91.13647282036283</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M28" t="n">
-        <v>96.09063231267676</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N28" t="n">
-        <v>93.80581184940493</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O28" t="n">
-        <v>86.6448501535405</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P28" t="n">
-        <v>74.13963766675469</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q28" t="n">
-        <v>51.33044216389641</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R28" t="n">
-        <v>27.56273661303133</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S28" t="n">
-        <v>10.68292884900547</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T28" t="n">
-        <v>2.619184433506819</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.36657971084286</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H29" t="n">
-        <v>13.99548446366944</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I29" t="n">
-        <v>52.68506430226941</v>
+        <v>60.47231027898639</v>
       </c>
       <c r="J29" t="n">
-        <v>115.9867447331493</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K29" t="n">
-        <v>173.8340638931276</v>
+        <v>199.5280367978889</v>
       </c>
       <c r="L29" t="n">
-        <v>215.6565277188348</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M29" t="n">
-        <v>239.9594396515365</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N29" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O29" t="n">
-        <v>230.2533072552751</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P29" t="n">
-        <v>196.515870643842</v>
+        <v>225.5623839830384</v>
       </c>
       <c r="Q29" t="n">
-        <v>147.575234749282</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R29" t="n">
-        <v>85.84341276123287</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S29" t="n">
-        <v>31.1409351608317</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T29" t="n">
-        <v>5.982202684214623</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8392591522397692</v>
       </c>
       <c r="H30" t="n">
-        <v>7.061703963819812</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I30" t="n">
-        <v>25.17455772751386</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J30" t="n">
-        <v>69.08091057431542</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K30" t="n">
-        <v>118.0702792170545</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L30" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M30" t="n">
         <v>173.4035213848624</v>
@@ -33278,22 +33280,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P30" t="n">
-        <v>139.624190361847</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q30" t="n">
-        <v>93.33507364351127</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R30" t="n">
-        <v>45.39758461027851</v>
+        <v>52.10768666274639</v>
       </c>
       <c r="S30" t="n">
-        <v>13.58143337274154</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T30" t="n">
-        <v>2.947187076635061</v>
+        <v>3.382803337317314</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05521441791051115</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7036066806956937</v>
       </c>
       <c r="H31" t="n">
-        <v>5.450132714829087</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I31" t="n">
-        <v>18.43460022561821</v>
+        <v>21.1593718158305</v>
       </c>
       <c r="J31" t="n">
-        <v>43.33914327528198</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K31" t="n">
-        <v>71.21952566003647</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L31" t="n">
-        <v>91.13647282036283</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M31" t="n">
-        <v>96.09063231267676</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N31" t="n">
-        <v>93.80581184940493</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O31" t="n">
-        <v>86.6448501535405</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P31" t="n">
-        <v>74.13963766675469</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q31" t="n">
-        <v>51.33044216389641</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R31" t="n">
-        <v>27.56273661303133</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S31" t="n">
-        <v>10.68292884900547</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T31" t="n">
-        <v>2.619184433506819</v>
+        <v>3.006319453881599</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.36657971084286</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H32" t="n">
-        <v>13.99548446366944</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I32" t="n">
-        <v>52.68506430226941</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J32" t="n">
-        <v>115.9867447331493</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K32" t="n">
-        <v>173.8340638931276</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L32" t="n">
-        <v>215.6565277188348</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M32" t="n">
-        <v>239.9594396515365</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N32" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O32" t="n">
-        <v>230.2533072552751</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P32" t="n">
-        <v>196.515870643842</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q32" t="n">
-        <v>147.575234749282</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R32" t="n">
-        <v>85.84341276123287</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S32" t="n">
-        <v>31.1409351608317</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T32" t="n">
-        <v>5.982202684214623</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H33" t="n">
-        <v>7.061703963819812</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I33" t="n">
-        <v>25.17455772751386</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J33" t="n">
-        <v>69.08091057431542</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K33" t="n">
-        <v>118.0702792170545</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L33" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M33" t="n">
         <v>173.4035213848624</v>
@@ -33515,22 +33517,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P33" t="n">
-        <v>139.624190361847</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q33" t="n">
-        <v>93.33507364351127</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R33" t="n">
-        <v>45.39758461027851</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S33" t="n">
-        <v>13.58143337274154</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T33" t="n">
-        <v>2.947187076635061</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H34" t="n">
-        <v>5.450132714829087</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I34" t="n">
-        <v>18.43460022561821</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J34" t="n">
-        <v>43.33914327528198</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K34" t="n">
-        <v>71.21952566003647</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L34" t="n">
-        <v>91.13647282036283</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M34" t="n">
-        <v>96.09063231267676</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N34" t="n">
-        <v>93.80581184940493</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O34" t="n">
-        <v>86.6448501535405</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P34" t="n">
-        <v>74.13963766675469</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q34" t="n">
-        <v>51.33044216389641</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R34" t="n">
-        <v>27.56273661303133</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S34" t="n">
-        <v>10.68292884900547</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T34" t="n">
-        <v>2.619184433506819</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.36657971084286</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H35" t="n">
-        <v>13.99548446366944</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I35" t="n">
-        <v>52.68506430226941</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J35" t="n">
-        <v>115.9867447331493</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K35" t="n">
-        <v>173.8340638931276</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L35" t="n">
-        <v>215.6565277188348</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M35" t="n">
-        <v>239.9594396515365</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N35" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O35" t="n">
-        <v>230.2533072552751</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P35" t="n">
-        <v>196.515870643842</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q35" t="n">
-        <v>147.575234749282</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R35" t="n">
-        <v>85.84341276123287</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S35" t="n">
-        <v>31.1409351608317</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T35" t="n">
-        <v>5.982202684214623</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H36" t="n">
-        <v>7.061703963819812</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I36" t="n">
-        <v>25.17455772751386</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J36" t="n">
-        <v>69.08091057431542</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K36" t="n">
-        <v>118.0702792170545</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L36" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M36" t="n">
         <v>173.4035213848624</v>
@@ -33752,22 +33754,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P36" t="n">
-        <v>139.624190361847</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q36" t="n">
-        <v>93.33507364351127</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R36" t="n">
-        <v>45.39758461027851</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S36" t="n">
-        <v>13.58143337274154</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T36" t="n">
-        <v>2.947187076635061</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H37" t="n">
-        <v>5.450132714829087</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I37" t="n">
-        <v>18.43460022561821</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J37" t="n">
-        <v>43.33914327528198</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K37" t="n">
-        <v>71.21952566003647</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L37" t="n">
-        <v>91.13647282036283</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M37" t="n">
-        <v>96.09063231267676</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N37" t="n">
-        <v>93.80581184940493</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O37" t="n">
-        <v>86.6448501535405</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P37" t="n">
-        <v>74.13963766675469</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q37" t="n">
-        <v>51.33044216389641</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R37" t="n">
-        <v>27.56273661303133</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S37" t="n">
-        <v>10.68292884900547</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T37" t="n">
-        <v>2.619184433506819</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.36657971084286</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H38" t="n">
-        <v>13.99548446366944</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I38" t="n">
-        <v>52.68506430226941</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J38" t="n">
-        <v>115.9867447331493</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K38" t="n">
-        <v>173.8340638931276</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L38" t="n">
-        <v>215.6565277188348</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M38" t="n">
-        <v>239.9594396515365</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N38" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O38" t="n">
-        <v>230.2533072552751</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P38" t="n">
-        <v>196.515870643842</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q38" t="n">
-        <v>147.575234749282</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R38" t="n">
-        <v>85.84341276123287</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S38" t="n">
-        <v>31.1409351608317</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T38" t="n">
-        <v>5.982202684214623</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H39" t="n">
-        <v>7.061703963819812</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I39" t="n">
-        <v>25.17455772751386</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J39" t="n">
-        <v>69.08091057431542</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K39" t="n">
-        <v>118.0702792170545</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L39" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M39" t="n">
         <v>173.4035213848624</v>
@@ -33989,22 +33991,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P39" t="n">
-        <v>139.624190361847</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q39" t="n">
-        <v>93.33507364351127</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R39" t="n">
-        <v>45.39758461027851</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S39" t="n">
-        <v>13.58143337274154</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T39" t="n">
-        <v>2.947187076635061</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H40" t="n">
-        <v>5.450132714829087</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I40" t="n">
-        <v>18.43460022561821</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J40" t="n">
-        <v>43.33914327528198</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K40" t="n">
-        <v>71.21952566003647</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L40" t="n">
-        <v>91.13647282036283</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M40" t="n">
-        <v>96.09063231267676</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N40" t="n">
-        <v>93.80581184940493</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O40" t="n">
-        <v>86.6448501535405</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P40" t="n">
-        <v>74.13963766675469</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q40" t="n">
-        <v>51.33044216389641</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R40" t="n">
-        <v>27.56273661303133</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S40" t="n">
-        <v>10.68292884900547</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T40" t="n">
-        <v>2.619184433506819</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.36657971084286</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H41" t="n">
-        <v>13.99548446366944</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I41" t="n">
-        <v>52.68506430226941</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J41" t="n">
-        <v>115.9867447331493</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K41" t="n">
-        <v>173.8340638931276</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L41" t="n">
-        <v>215.6565277188348</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M41" t="n">
-        <v>239.9594396515365</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N41" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O41" t="n">
-        <v>230.2533072552751</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P41" t="n">
-        <v>196.515870643842</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q41" t="n">
-        <v>147.575234749282</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R41" t="n">
-        <v>85.84341276123287</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S41" t="n">
-        <v>31.1409351608317</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T41" t="n">
-        <v>5.982202684214623</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H42" t="n">
-        <v>7.061703963819812</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I42" t="n">
-        <v>25.17455772751386</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J42" t="n">
-        <v>69.08091057431542</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K42" t="n">
-        <v>118.0702792170545</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L42" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M42" t="n">
         <v>173.4035213848624</v>
@@ -34226,22 +34228,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P42" t="n">
-        <v>139.624190361847</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q42" t="n">
-        <v>93.33507364351127</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R42" t="n">
-        <v>45.39758461027851</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S42" t="n">
-        <v>13.58143337274154</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T42" t="n">
-        <v>2.947187076635061</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H43" t="n">
-        <v>5.450132714829087</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I43" t="n">
-        <v>18.43460022561821</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J43" t="n">
-        <v>43.33914327528198</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K43" t="n">
-        <v>71.21952566003647</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L43" t="n">
-        <v>91.13647282036283</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M43" t="n">
-        <v>96.09063231267676</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N43" t="n">
-        <v>93.80581184940493</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O43" t="n">
-        <v>86.6448501535405</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P43" t="n">
-        <v>74.13963766675469</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q43" t="n">
-        <v>51.33044216389641</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R43" t="n">
-        <v>27.56273661303133</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S43" t="n">
-        <v>10.68292884900547</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T43" t="n">
-        <v>2.619184433506819</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.36657971084286</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H44" t="n">
-        <v>13.99548446366944</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I44" t="n">
-        <v>52.68506430226941</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J44" t="n">
-        <v>115.9867447331493</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K44" t="n">
-        <v>173.8340638931276</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L44" t="n">
-        <v>215.6565277188348</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M44" t="n">
-        <v>239.9594396515365</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N44" t="n">
-        <v>243.8422342549688</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O44" t="n">
-        <v>230.2533072552751</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P44" t="n">
-        <v>196.515870643842</v>
+        <v>230.0480929810377</v>
       </c>
       <c r="Q44" t="n">
-        <v>147.575234749282</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R44" t="n">
-        <v>85.84341276123287</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S44" t="n">
-        <v>31.1409351608317</v>
+        <v>36.45462691600663</v>
       </c>
       <c r="T44" t="n">
-        <v>5.982202684214623</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.8559493124711768</v>
       </c>
       <c r="H45" t="n">
-        <v>7.061703963819812</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I45" t="n">
-        <v>25.17455772751386</v>
+        <v>29.47018466183657</v>
       </c>
       <c r="J45" t="n">
-        <v>69.08091057431542</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K45" t="n">
-        <v>118.0702792170545</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L45" t="n">
-        <v>158.7600611847865</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M45" t="n">
         <v>173.4035213848624</v>
@@ -34463,22 +34465,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P45" t="n">
-        <v>139.624190361847</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q45" t="n">
-        <v>93.33507364351127</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R45" t="n">
-        <v>45.39758461027851</v>
+        <v>53.14394064623677</v>
       </c>
       <c r="S45" t="n">
-        <v>13.58143337274154</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T45" t="n">
-        <v>2.947187076635061</v>
+        <v>3.450076395443031</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.7175991503748864</v>
       </c>
       <c r="H46" t="n">
-        <v>5.450132714829087</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I46" t="n">
-        <v>18.43460022561821</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J46" t="n">
-        <v>43.33914327528198</v>
+        <v>50.73425993150447</v>
       </c>
       <c r="K46" t="n">
-        <v>71.21952566003647</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L46" t="n">
-        <v>91.13647282036283</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M46" t="n">
-        <v>96.09063231267676</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N46" t="n">
-        <v>93.80581184940493</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O46" t="n">
-        <v>86.6448501535405</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P46" t="n">
-        <v>74.13963766675469</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q46" t="n">
-        <v>51.33044216389641</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R46" t="n">
-        <v>27.56273661303133</v>
+        <v>32.26586725231079</v>
       </c>
       <c r="S46" t="n">
-        <v>10.68292884900547</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T46" t="n">
-        <v>2.619184433506819</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_9_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_9_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6365.358867920804</v>
+        <v>-124379.4268046919</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5556998.633527084</v>
+        <v>5565033.324612641</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22975830.95887364</v>
+        <v>22951988.2933179</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4877736.978122506</v>
+        <v>4890351.417212151</v>
       </c>
     </row>
     <row r="11">
@@ -8461,10 +8461,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M8" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N8" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O8" t="n">
         <v>246.758517458259</v>
@@ -8534,22 +8534,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M9" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O9" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -10114,7 +10114,7 @@
         <v>87.74555168308848</v>
       </c>
       <c r="K29" t="n">
-        <v>68.98158147698734</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L29" t="n">
         <v>40.1028531396922</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>16.43335224433224</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P29" t="n">
-        <v>56.54187083839042</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q29" t="n">
         <v>101.8249850515391</v>
@@ -10275,7 +10275,7 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>59.95218091677093</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M31" t="n">
         <v>59.1959110048432</v>
@@ -10351,7 +10351,7 @@
         <v>87.74555168308848</v>
       </c>
       <c r="K32" t="n">
-        <v>68.98158147698732</v>
+        <v>68.98158147698734</v>
       </c>
       <c r="L32" t="n">
         <v>40.1028531396922</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>16.43335224433218</v>
+        <v>16.43335224433224</v>
       </c>
       <c r="P32" t="n">
-        <v>56.54187083839039</v>
+        <v>56.54187083839042</v>
       </c>
       <c r="Q32" t="n">
         <v>101.8249850515391</v>
@@ -10512,7 +10512,7 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>59.95218091677091</v>
+        <v>59.95218091677093</v>
       </c>
       <c r="M34" t="n">
         <v>59.1959110048432</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>85.09801597620873</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K44" t="n">
-        <v>65.01361175520637</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L44" t="n">
-        <v>35.18023582793884</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M44" t="n">
-        <v>0.1178073473550967</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>11.17754604002829</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P44" t="n">
-        <v>52.05616184039113</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q44" t="n">
-        <v>98.45640440597657</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11375,10 +11375,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>73.87346532306307</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K45" t="n">
-        <v>29.94951240287884</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q45" t="n">
-        <v>61.51658548073077</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11460,19 +11460,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>57.87188228828438</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M46" t="n">
-        <v>57.00252778049483</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N46" t="n">
-        <v>45.96412335430749</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O46" t="n">
-        <v>67.48759882007782</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P46" t="n">
-        <v>81.23780951643748</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q46" t="n">
         <v>42.34223702878295</v>
@@ -23035,22 +23035,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G8" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H8" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I8" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J8" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K8" t="n">
-        <v>58.46339092876153</v>
+        <v>44.7678260839346</v>
       </c>
       <c r="L8" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23059,25 +23059,25 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P8" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q8" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R8" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S8" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T8" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U8" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V8" t="n">
         <v>320.879783609152</v>
@@ -23114,16 +23114,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H9" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I9" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J9" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R9" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T9" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -23193,49 +23193,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G10" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H10" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I10" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J10" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K10" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L10" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M10" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N10" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O10" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P10" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q10" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R10" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S10" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T10" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U10" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V10" t="n">
         <v>245.1090151844499</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>96.12326613555375</v>
+        <v>96.12326613555373</v>
       </c>
       <c r="S30" t="n">
         <v>180.0440037912057</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.57640008743158</v>
+        <v>83.57640008743157</v>
       </c>
       <c r="R31" t="n">
         <v>179.9964210683504</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>96.12326613555373</v>
+        <v>96.12326613555375</v>
       </c>
       <c r="S33" t="n">
         <v>180.0440037912057</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>83.57640008743157</v>
+        <v>83.57640008743158</v>
       </c>
       <c r="R34" t="n">
         <v>179.9964210683504</v>
@@ -25879,13 +25879,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.6451278854616</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H44" t="n">
-        <v>334.8031257118105</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I44" t="n">
-        <v>195.0148988772292</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>119.9389275525271</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S44" t="n">
-        <v>200.3304798620524</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2433265744337</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0550978864748</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25958,13 +25958,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.1062690826207</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H45" t="n">
-        <v>119.5705485629778</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I45" t="n">
-        <v>85.3856347858804</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>95.08701215206337</v>
+        <v>96.12326613555373</v>
       </c>
       <c r="S45" t="n">
-        <v>179.733991385153</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T45" t="n">
-        <v>212.3979840210444</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1860737474145</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26037,19 +26037,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.1656159775701</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H46" t="n">
-        <v>161.0663480847431</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I46" t="n">
-        <v>148.7592789296147</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J46" t="n">
-        <v>82.40386984743405</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K46" t="n">
-        <v>4.854240360436052</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.40472155820389</v>
+        <v>83.57640008743157</v>
       </c>
       <c r="R46" t="n">
-        <v>179.367268749866</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S46" t="n">
-        <v>226.1116833993675</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T46" t="n">
-        <v>221.4749702111983</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6273664804066</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>364906.7148397804</v>
+        <v>378652.4836692779</v>
       </c>
     </row>
     <row r="5">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>440923.3356258553</v>
+        <v>440760.0439321055</v>
       </c>
     </row>
   </sheetData>
@@ -26319,16 +26319,16 @@
         <v>52885.03113620008</v>
       </c>
       <c r="D2" t="n">
-        <v>52885.03113620008</v>
+        <v>55410.76167471514</v>
       </c>
       <c r="E2" t="n">
-        <v>71463.7420783835</v>
+        <v>71463.74207838348</v>
       </c>
       <c r="F2" t="n">
-        <v>71463.7420783835</v>
+        <v>71463.74207838348</v>
       </c>
       <c r="G2" t="n">
-        <v>71463.7420783835</v>
+        <v>71463.74207838348</v>
       </c>
       <c r="H2" t="n">
         <v>71463.7420783835</v>
@@ -26337,25 +26337,25 @@
         <v>71463.7420783835</v>
       </c>
       <c r="J2" t="n">
-        <v>71463.7420783835</v>
+        <v>71463.74207838348</v>
       </c>
       <c r="K2" t="n">
         <v>71463.74207838351</v>
       </c>
       <c r="L2" t="n">
-        <v>71463.74207838351</v>
+        <v>71463.74207838348</v>
       </c>
       <c r="M2" t="n">
+        <v>71463.7420783835</v>
+      </c>
+      <c r="N2" t="n">
         <v>71463.74207838348</v>
       </c>
-      <c r="N2" t="n">
-        <v>71463.74207838351</v>
-      </c>
       <c r="O2" t="n">
-        <v>71463.74207838351</v>
+        <v>71463.74207838347</v>
       </c>
       <c r="P2" t="n">
-        <v>71605.20606132397</v>
+        <v>71463.7420783835</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22936.48595985283</v>
       </c>
       <c r="E3" t="n">
-        <v>313473.2982140792</v>
+        <v>291956.5532407326</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5164.510654100926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,7 +26423,7 @@
         <v>47596.52802258005</v>
       </c>
       <c r="D4" t="n">
-        <v>47596.52802258005</v>
+        <v>46187.9136209872</v>
       </c>
       <c r="E4" t="n">
         <v>11977.59146180444</v>
@@ -26459,7 +26459,7 @@
         <v>11977.59146180444</v>
       </c>
       <c r="P4" t="n">
-        <v>11292.09925791138</v>
+        <v>11977.59146180444</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>34211.44775812258</v>
       </c>
       <c r="E5" t="n">
         <v>8505.965127173942</v>
@@ -26511,7 +26511,7 @@
         <v>8505.965127173942</v>
       </c>
       <c r="P5" t="n">
-        <v>8675.121365168401</v>
+        <v>8505.965127173942</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28339.09688637997</v>
+        <v>-45143.55749422337</v>
       </c>
       <c r="C6" t="n">
-        <v>-28339.09688637997</v>
+        <v>-45143.55749422337</v>
       </c>
       <c r="D6" t="n">
-        <v>-28339.09688637997</v>
+        <v>-64476.97321823935</v>
       </c>
       <c r="E6" t="n">
-        <v>-262493.1127246741</v>
+        <v>-255922.9572649526</v>
       </c>
       <c r="F6" t="n">
-        <v>50980.18548940511</v>
+        <v>36033.59597578006</v>
       </c>
       <c r="G6" t="n">
-        <v>50980.18548940511</v>
+        <v>36033.59597578005</v>
       </c>
       <c r="H6" t="n">
-        <v>50980.18548940511</v>
+        <v>36033.59597578007</v>
       </c>
       <c r="I6" t="n">
-        <v>50980.18548940511</v>
+        <v>36033.59597578007</v>
       </c>
       <c r="J6" t="n">
-        <v>50980.18548940511</v>
+        <v>36033.59597578006</v>
       </c>
       <c r="K6" t="n">
-        <v>50980.18548940513</v>
+        <v>36033.59597578008</v>
       </c>
       <c r="L6" t="n">
-        <v>50980.18548940513</v>
+        <v>36033.59597578005</v>
       </c>
       <c r="M6" t="n">
-        <v>50980.1854894051</v>
+        <v>36033.59597578007</v>
       </c>
       <c r="N6" t="n">
-        <v>50980.18548940513</v>
+        <v>36033.59597578006</v>
       </c>
       <c r="O6" t="n">
-        <v>50980.18548940513</v>
+        <v>36033.59597578004</v>
       </c>
       <c r="P6" t="n">
-        <v>46473.47478414326</v>
+        <v>36033.59597578007</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="E3" t="n">
         <v>390.181886567612</v>
@@ -26779,7 +26779,7 @@
         <v>390.181886567612</v>
       </c>
       <c r="P3" t="n">
-        <v>397.9413470260735</v>
+        <v>390.181886567612</v>
       </c>
     </row>
     <row r="4">
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="E3" t="n">
-        <v>390.181886567612</v>
+        <v>363.3998793142827</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>7.759460458461433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.76319703769629</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.453447197126607</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.05760658163923679</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>7.353429614159418</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.8416575066333181</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -33180,13 +33180,13 @@
         <v>16.06412159119821</v>
       </c>
       <c r="I29" t="n">
-        <v>60.47231027898639</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J29" t="n">
         <v>133.1304518394688</v>
       </c>
       <c r="K29" t="n">
-        <v>199.5280367978889</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L29" t="n">
         <v>247.5321731236922</v>
@@ -33201,7 +33201,7 @@
         <v>264.2864656901256</v>
       </c>
       <c r="P29" t="n">
-        <v>225.5623839830384</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q29" t="n">
         <v>169.3879565952893</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8392591522397692</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H30" t="n">
         <v>8.105476549263036</v>
@@ -33286,16 +33286,16 @@
         <v>107.1306945911678</v>
       </c>
       <c r="R30" t="n">
-        <v>52.10768666274639</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S30" t="n">
         <v>15.5888706567343</v>
       </c>
       <c r="T30" t="n">
-        <v>3.382803337317314</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05521441791051115</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7036066806956937</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H31" t="n">
         <v>6.255703033821718</v>
       </c>
       <c r="I31" t="n">
-        <v>21.1593718158305</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J31" t="n">
         <v>49.74499232518554</v>
@@ -33371,7 +33371,7 @@
         <v>12.26194551721495</v>
       </c>
       <c r="T31" t="n">
-        <v>3.006319453881599</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U31" t="n">
         <v>0.03837854621976516</v>
@@ -33417,13 +33417,13 @@
         <v>16.06412159119821</v>
       </c>
       <c r="I32" t="n">
-        <v>60.4723102789864</v>
+        <v>60.47231027898639</v>
       </c>
       <c r="J32" t="n">
         <v>133.1304518394688</v>
       </c>
       <c r="K32" t="n">
-        <v>199.528036797889</v>
+        <v>199.5280367978889</v>
       </c>
       <c r="L32" t="n">
         <v>247.5321731236922</v>
@@ -33438,7 +33438,7 @@
         <v>264.2864656901256</v>
       </c>
       <c r="P32" t="n">
-        <v>225.5623839830385</v>
+        <v>225.5623839830384</v>
       </c>
       <c r="Q32" t="n">
         <v>169.3879565952893</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8392591522397692</v>
       </c>
       <c r="H33" t="n">
         <v>8.105476549263036</v>
@@ -33523,16 +33523,16 @@
         <v>107.1306945911678</v>
       </c>
       <c r="R33" t="n">
-        <v>52.1076866627464</v>
+        <v>52.10768666274639</v>
       </c>
       <c r="S33" t="n">
         <v>15.5888706567343</v>
       </c>
       <c r="T33" t="n">
-        <v>3.382803337317315</v>
+        <v>3.382803337317314</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05521441791051115</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7036066806956937</v>
       </c>
       <c r="H34" t="n">
         <v>6.255703033821718</v>
       </c>
       <c r="I34" t="n">
-        <v>21.15937181583051</v>
+        <v>21.1593718158305</v>
       </c>
       <c r="J34" t="n">
         <v>49.74499232518554</v>
@@ -33608,7 +33608,7 @@
         <v>12.26194551721495</v>
       </c>
       <c r="T34" t="n">
-        <v>3.0063194538816</v>
+        <v>3.006319453881599</v>
       </c>
       <c r="U34" t="n">
         <v>0.03837854621976516</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.599764209150043</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H44" t="n">
-        <v>16.38358520695788</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I44" t="n">
-        <v>61.67490967325708</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J44" t="n">
-        <v>135.7779875463486</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K44" t="n">
-        <v>203.4960065196699</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L44" t="n">
-        <v>252.4547904354456</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M44" t="n">
-        <v>280.9045971899176</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N44" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O44" t="n">
-        <v>269.5422718944295</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P44" t="n">
-        <v>230.0480929810377</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q44" t="n">
-        <v>172.7565372408518</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R44" t="n">
-        <v>100.4911885030215</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S44" t="n">
-        <v>36.45462691600663</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T44" t="n">
-        <v>7.002967825554316</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1279811367320034</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8559493124711768</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H45" t="n">
-        <v>8.266668359918999</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I45" t="n">
-        <v>29.47018466183657</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J45" t="n">
-        <v>80.86843921027028</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K45" t="n">
-        <v>138.2170431458391</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L45" t="n">
         <v>169.0363433314465</v>
@@ -34465,22 +34465,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P45" t="n">
-        <v>163.4487770454829</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q45" t="n">
-        <v>109.2611789042155</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R45" t="n">
-        <v>53.14394064623677</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S45" t="n">
-        <v>15.89888306278698</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T45" t="n">
-        <v>3.450076395443031</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05631245476784061</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7175991503748864</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H46" t="n">
-        <v>6.380108809696723</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I46" t="n">
-        <v>21.58016354036478</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J46" t="n">
-        <v>50.73425993150447</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K46" t="n">
-        <v>83.37197401628225</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L46" t="n">
-        <v>106.6874227748263</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M46" t="n">
-        <v>112.4869286355833</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N46" t="n">
-        <v>109.812240893277</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O46" t="n">
-        <v>101.4293780911704</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P46" t="n">
-        <v>86.7903554235226</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.08914340093709</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R46" t="n">
-        <v>32.26586725231079</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S46" t="n">
-        <v>12.50579610244234</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T46" t="n">
-        <v>3.066105460692696</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03914177183863022</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
